--- a/data/expt_2/raw_transcripts/game24.xlsx
+++ b/data/expt_2/raw_transcripts/game24.xlsx
@@ -1,46 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="MVI_0056.MP4.csv" sheetId="1" r:id="rId4"/>
+    <sheet name="MVI_0056.MP4.csv" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="168">
   <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>trial</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>echo</t>
-  </si>
-  <si>
-    <t>description</t>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now you're on camera.</t>
   </si>
   <si>
-    <t>R</t>
+    <t xml:space="preserve">R</t>
   </si>
   <si>
     <t xml:space="preserve"> So, we're going to play a fun matching game.</t>
@@ -49,16 +58,16 @@
     <t xml:space="preserve"> But to start, we're going to practice touching the bubbles on the iPad, okay?</t>
   </si>
   <si>
-    <t>So go ahead and press the blue button.</t>
-  </si>
-  <si>
-    <t>There you go.</t>
-  </si>
-  <si>
-    <t>And then pop all the bubbles.</t>
-  </si>
-  <si>
-    <t>Great job. Keep going.</t>
+    <t xml:space="preserve">So go ahead and press the blue button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There you go.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And then pop all the bubbles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great job. Keep going.</t>
   </si>
   <si>
     <t xml:space="preserve"> Yay, awesome.</t>
@@ -70,37 +79,37 @@
     <t xml:space="preserve"> And I'm going to explain the game to you, okay?</t>
   </si>
   <si>
-    <t>So this is my friend Smurphy.</t>
-  </si>
-  <si>
-    <t>You and say hi?</t>
+    <t xml:space="preserve">So this is my friend Smurphy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You and say hi?</t>
   </si>
   <si>
     <t xml:space="preserve"> Hi, [id70].</t>
   </si>
   <si>
-    <t>But I'm going to tell Mom that we were playing on iPads.</t>
-  </si>
-  <si>
-    <t>id70</t>
-  </si>
-  <si>
-    <t>Yeah.</t>
-  </si>
-  <si>
-    <t>And I'm not like that.</t>
-  </si>
-  <si>
-    <t>id71</t>
-  </si>
-  <si>
-    <t>You can tell her you went to the game room.</t>
-  </si>
-  <si>
-    <t>For real life.</t>
-  </si>
-  <si>
-    <t>Okay.</t>
+    <t xml:space="preserve">But I'm going to tell Mom that we were playing on iPads.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And I'm not like that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can tell her you went to the game room.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For real life.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay.</t>
   </si>
   <si>
     <t xml:space="preserve"> I'm going to explain the game now, okay?</t>
@@ -109,13 +118,13 @@
     <t xml:space="preserve"> And we're going to help Smurphy in this game, okay?</t>
   </si>
   <si>
-    <t>So on your iPads and on the screens you're going to see two pictures.</t>
+    <t xml:space="preserve">So on your iPads and on the screens you're going to see two pictures.</t>
   </si>
   <si>
     <t xml:space="preserve"> And two pictures, right?</t>
   </si>
   <si>
-    <t>One of the pictures will have a black box around it.</t>
+    <t xml:space="preserve">One of the pictures will have a black box around it.</t>
   </si>
   <si>
     <t xml:space="preserve"> And if you have the picture with the black box, then you're going to help Smurphy by telling him what you see in the black box.</t>
@@ -124,37 +133,37 @@
     <t xml:space="preserve"> If you don't have a black box that looks like this, you don't have a black box.</t>
   </si>
   <si>
-    <t>black box then you're going to be holding Smurphy and you're going to help</t>
-  </si>
-  <si>
-    <t>Smurphy guess what pictures in the black box okay so if you have the black</t>
-  </si>
-  <si>
-    <t>box you're the teller and you're going to tell Smurphy if you have don't have</t>
-  </si>
-  <si>
-    <t>a black box you're going to be the guesser and you're going to help Smurphy</t>
-  </si>
-  <si>
-    <t>guess does that sound good okay I'm going to ask you so if you have the black</t>
+    <t xml:space="preserve">black box then you're going to be holding Smurphy and you're going to help</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smurphy guess what pictures in the black box okay so if you have the black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box you're the teller and you're going to tell Smurphy if you have don't have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a black box you're going to be the guesser and you're going to help Smurphy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guess does that sound good okay I'm going to ask you so if you have the black</t>
   </si>
   <si>
     <t xml:space="preserve">box and what do you do? </t>
   </si>
   <si>
-    <t>Um tell</t>
-  </si>
-  <si>
-    <t>Good job and if you don't what do you do?</t>
-  </si>
-  <si>
-    <t>Um hold Smurphy</t>
+    <t xml:space="preserve">Um tell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good job and if you don't what do you do?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um hold Smurphy</t>
   </si>
   <si>
     <t xml:space="preserve"> Yeah, you hold Smurphy and you guess.</t>
   </si>
   <si>
-    <t>And you guys are going to switch off telling and guessing.</t>
+    <t xml:space="preserve">And you guys are going to switch off telling and guessing.</t>
   </si>
   <si>
     <t xml:space="preserve"> And if you get it right, you're going to have a smiley face.</t>
@@ -166,10 +175,10 @@
     <t xml:space="preserve"> But that's okay because you're going to have many opportunities to play, okay?</t>
   </si>
   <si>
-    <t>And help Smurphy.</t>
-  </si>
-  <si>
-    <t>So we're going to start and you can press the blue button.</t>
+    <t xml:space="preserve">And help Smurphy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So we're going to start and you can press the blue button.</t>
   </si>
   <si>
     <t xml:space="preserve"> Good job, touching the blue button.</t>
@@ -181,7 +190,7 @@
     <t xml:space="preserve"> Me. </t>
   </si>
   <si>
-    <t>S</t>
+    <t xml:space="preserve">S</t>
   </si>
   <si>
     <t xml:space="preserve"> [id70]. Okay, so now [id71] is going to hold Smurphy and [id70] you're going to say what you see in the black box.</t>
@@ -190,348 +199,369 @@
     <t xml:space="preserve"> I see a apple</t>
   </si>
   <si>
-    <t>An apple</t>
-  </si>
-  <si>
-    <t>Okay, [id71] and you press what you think is in the black box.</t>
+    <t xml:space="preserve">An apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay, [id71] and you press what you think is in the black box.</t>
   </si>
   <si>
     <t xml:space="preserve">Press it. </t>
   </si>
   <si>
-    <t>That's okay. Now we're going to switch. So now you're going to hold Smurphy and [id71] you're going to tell [id70] what you see in the black box.</t>
-  </si>
-  <si>
-    <t>box tell what you see</t>
-  </si>
-  <si>
-    <t>a dog</t>
-  </si>
-  <si>
-    <t>A dog</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>so touch the touch the one you think it is</t>
-  </si>
-  <si>
-    <t>Good job okay now you're gonna switch can [id70] tell us what you see in the black box</t>
+    <t xml:space="preserve">That's okay. Now we're going to switch. So now you're going to hold Smurphy and [id71] you're going to tell [id70] what you see in the black box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box tell what you see</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a dog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so touch the touch the one you think it is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good job okay now you're gonna switch can [id70] tell us what you see in the black box</t>
   </si>
   <si>
     <t xml:space="preserve">a house </t>
   </si>
   <si>
-    <t>A house</t>
-  </si>
-  <si>
-    <t>then how press touch what you think is in the black box that [id70]'s</t>
+    <t xml:space="preserve">A house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">then how press touch what you think is in the black box that [id70]'s</t>
   </si>
   <si>
     <t xml:space="preserve">using her words to describe </t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>touch it</t>
+    <t xml:space="preserve">house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">touch it</t>
   </si>
   <si>
     <t xml:space="preserve"> There you go. Okay, now you're going to switch. And [id71] is going to tell us what she sees in the black box.</t>
   </si>
   <si>
-    <t>I see a tree</t>
-  </si>
-  <si>
-    <t>A tree</t>
-  </si>
-  <si>
-    <t>Say it a little louder so [id70] can hear</t>
-  </si>
-  <si>
-    <t>I see a tree.</t>
+    <t xml:space="preserve">I see a tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Say it a little louder so [id70] can hear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a tree.</t>
   </si>
   <si>
     <t xml:space="preserve"> Good job. Okay, now you switch.</t>
   </si>
   <si>
-    <t>I see a human.</t>
-  </si>
-  <si>
-    <t>Can you tell us a little bit more.</t>
-  </si>
-  <si>
-    <t>And touch which one you think [id70] is talking about.</t>
-  </si>
-  <si>
-    <t>A human.</t>
-  </si>
-  <si>
-    <t>Can you use more words to describe?</t>
+    <t xml:space="preserve">I see a human.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you tell us a little bit more.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And touch which one you think [id70] is talking about.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A human.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you use more words to describe?</t>
   </si>
   <si>
     <t xml:space="preserve"> Well, don't show her. You have to use your words.</t>
   </si>
   <si>
-    <t>The human holding a rectangle, bending with one foot and a square head, like a kite</t>
-  </si>
-  <si>
     <t xml:space="preserve"> The human is holding a square, a rectangular, and he's bending, and then he has one foot, and there's one square head</t>
   </si>
   <si>
+    <t xml:space="preserve">The human holding a rectangle, bending with one foot and a square head, like a kite</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Just make your best guess, [id71]</t>
   </si>
   <si>
-    <t>It's like a kite.</t>
-  </si>
-  <si>
-    <t>That's a house joke.</t>
-  </si>
-  <si>
-    <t>Touch it if you think that one's right</t>
-  </si>
-  <si>
-    <t>Good job!</t>
-  </si>
-  <si>
-    <t>Now it's [id71]'s turn.</t>
-  </si>
-  <si>
-    <t>Tell us what's in the black box.</t>
-  </si>
-  <si>
-    <t>Tell us what you see.</t>
-  </si>
-  <si>
-    <t>Maybe a kite</t>
-  </si>
-  <si>
-    <t>A kite</t>
-  </si>
-  <si>
-    <t>Touch it if you think that's the right one.</t>
-  </si>
-  <si>
-    <t>Yay!</t>
-  </si>
-  <si>
-    <t>T</t>
+    <t xml:space="preserve">It's like a kite.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's a house joke.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Touch it if you think that one's right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good job!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now it's [id71]'s turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell us what's in the black box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell us what you see.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maybe a kite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A kite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Touch it if you think that's the right one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now you switch and now [id71] is going to guess and [id70]'s going to tell us.</t>
   </si>
   <si>
-    <t>It's a boat.</t>
-  </si>
-  <si>
-    <t>A boat</t>
-  </si>
-  <si>
-    <t>That boat</t>
-  </si>
-  <si>
-    <t>Touch it.</t>
+    <t xml:space="preserve">It's a boat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A boat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That boat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Touch it.</t>
   </si>
   <si>
     <t xml:space="preserve"> Remember [id71], if you think you know the right answer, you touch it, okay?</t>
   </si>
   <si>
-    <t>On the screen.</t>
+    <t xml:space="preserve">On the screen.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now [id71]'s going to tell us what she sees.</t>
   </si>
   <si>
-    <t>A people.</t>
-  </si>
-  <si>
-    <t>A people</t>
-  </si>
-  <si>
-    <t>[id70]'s turn.</t>
-  </si>
-  <si>
-    <t>A human</t>
-  </si>
-  <si>
-    <t>And then touch it if you think you know.</t>
-  </si>
-  <si>
-    <t>That's okay.</t>
-  </si>
-  <si>
-    <t>We'll try again</t>
-  </si>
-  <si>
-    <t>Now [id71] is going to tell us.</t>
-  </si>
-  <si>
-    <t>A boat.</t>
-  </si>
-  <si>
-    <t>Now [id70]'s turn.</t>
-  </si>
-  <si>
-    <t>Tell us what you see in the black box.</t>
+    <t xml:space="preserve">A people.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[id70]'s turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A human</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And then touch it if you think you know.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's okay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We'll try again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now [id71] is going to tell us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A boat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now [id70]'s turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell us what you see in the black box.</t>
   </si>
   <si>
     <t xml:space="preserve"> A human</t>
   </si>
   <si>
-    <t>I touch this one</t>
+    <t xml:space="preserve">I touch this one</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, keep going. Now it's [id71]'s turn.</t>
   </si>
   <si>
-    <t>[id71] tell [id70] what you see in the black box.</t>
+    <t xml:space="preserve">[id71] tell [id70] what you see in the black box.</t>
   </si>
   <si>
     <t xml:space="preserve"> Um, a kite</t>
   </si>
   <si>
-    <t>Can you say it a little loud?</t>
-  </si>
-  <si>
-    <t>A kite.</t>
-  </si>
-  <si>
-    <t>Now [id70]'s going to tell us.</t>
-  </si>
-  <si>
-    <t>I think I pop those yeah</t>
+    <t xml:space="preserve">Can you say it a little loud?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A kite.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now [id70]'s going to tell us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think I pop those yeah</t>
   </si>
   <si>
     <t xml:space="preserve">touch it </t>
   </si>
   <si>
-    <t>good job okay okay now [id71]'s turn what do you see</t>
+    <t xml:space="preserve">good job okay okay now [id71]'s turn what do you see</t>
   </si>
   <si>
     <t xml:space="preserve"> I see a human. A human</t>
   </si>
   <si>
-    <t>Good job. Keep going.</t>
-  </si>
-  <si>
-    <t>[id70] your turn to tell us.</t>
-  </si>
-  <si>
-    <t>It's a... a human.</t>
-  </si>
-  <si>
-    <t>I have no human in mine.</t>
+    <t xml:space="preserve">Good job. Keep going.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[id70] your turn to tell us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a... a human.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have no human in mine.</t>
   </si>
   <si>
     <t xml:space="preserve">It's a kite. </t>
   </si>
   <si>
-    <t>I have a kite in mine</t>
-  </si>
-  <si>
-    <t>Good job.</t>
-  </si>
-  <si>
-    <t>I see a human in the box.</t>
-  </si>
-  <si>
-    <t>That's okay. We'll keep going.</t>
-  </si>
-  <si>
-    <t>Now it's your turn to tell us what's in the black box.</t>
+    <t xml:space="preserve">I have a kite in mine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good job.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see a human in the box.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That's okay. We'll keep going.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now it's your turn to tell us what's in the black box.</t>
   </si>
   <si>
     <t xml:space="preserve">It's a human. </t>
   </si>
   <si>
-    <t>I get it</t>
+    <t xml:space="preserve">I get it</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay. Now, [id71], what's in the black box?</t>
   </si>
   <si>
-    <t>Um A human holding a roof.</t>
-  </si>
-  <si>
-    <t>A human holding a roof</t>
+    <t xml:space="preserve">Um A human holding a roof.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A human holding a roof</t>
   </si>
   <si>
     <t xml:space="preserve"> Now, [id71]'s going to help Smurphy gets, so [id70]'s going to tell us what's in the black box.</t>
   </si>
   <si>
-    <t>What's in the black box, [id70]?</t>
+    <t xml:space="preserve">What's in the black box, [id70]?</t>
   </si>
   <si>
     <t xml:space="preserve"> Yeah, tell us what's in the black box.</t>
   </si>
   <si>
-    <t>Just give me a little bit</t>
+    <t xml:space="preserve">Just give me a little bit</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, that's okay.</t>
   </si>
   <si>
-    <t>Ship.</t>
-  </si>
-  <si>
-    <t>Ship</t>
-  </si>
-  <si>
-    <t>A ship.</t>
-  </si>
-  <si>
-    <t>Great job.</t>
-  </si>
-  <si>
-    <t>I found it.</t>
+    <t xml:space="preserve">Ship.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ship.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great job.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I found it.</t>
   </si>
   <si>
     <t xml:space="preserve"> Yeah, keep it going.</t>
   </si>
   <si>
-    <t>Who has a black box?</t>
-  </si>
-  <si>
-    <t>Me</t>
+    <t xml:space="preserve">Who has a black box?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me</t>
   </si>
   <si>
     <t xml:space="preserve">[id71]  </t>
   </si>
   <si>
-    <t>So [id71] is going to tell us now what's in the black box?</t>
+    <t xml:space="preserve">So [id71] is going to tell us now what's in the black box?</t>
   </si>
   <si>
     <t xml:space="preserve"> Good job, friends, you guys finished!</t>
   </si>
   <si>
-    <t>Thank you so much for playing my game!</t>
-  </si>
-  <si>
-    <t>Smurphy says thank you.</t>
-  </si>
-  <si>
-    <t>I want to do it again.</t>
+    <t xml:space="preserve">Thank you so much for playing my game!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smurphy says thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to do it again.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -539,249 +569,87 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285F4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="EA4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="FBBC04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34A853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="FF6D01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46BDC6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155CC"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155CC"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="H80" activeCellId="0" sqref="H80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="56.5"/>
-    <col customWidth="1" min="4" max="4" width="13.38"/>
-    <col customWidth="1" min="5" max="5" width="6.13"/>
-    <col customWidth="1" min="6" max="6" width="15.38"/>
-    <col customWidth="1" min="8" max="8" width="34.0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="34"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -807,12 +675,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1600.0</v>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1600</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -821,12 +689,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>2500.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4140.0</v>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>4140</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -835,12 +703,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>4760.0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>8000.0</v>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>4760</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>8000</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -849,12 +717,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>8200.0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>9760.0</v>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>8200</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>9760</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -863,12 +731,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>11420.0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>12260.0</v>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>11420</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>12260</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -877,12 +745,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>12760.0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>14220.0</v>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>12760</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>14220</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -891,12 +759,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>19620.0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>20940.0</v>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>19620</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>20940</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -905,12 +773,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>23600.0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>24940.0</v>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>23600</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>24940</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -919,12 +787,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>26440.0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>29240.0</v>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>26440</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>29240</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
@@ -933,12 +801,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>29240.0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>30860.0</v>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>29240</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>30860</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
@@ -947,12 +815,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>31200.0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>32620.0</v>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>31200</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>32620</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
@@ -961,12 +829,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>32820.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>33320.0</v>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>32820</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>33320</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -975,12 +843,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>34200.0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>34920.0</v>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>34200</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>34920</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
@@ -989,12 +857,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>35000.0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>39640.0</v>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>35000</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>39640</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
@@ -1003,12 +871,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>39880.0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>40160.0</v>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>39880</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>40160</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>24</v>
@@ -1017,12 +885,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>40460.0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>41380.0</v>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>40460</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>41380</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>25</v>
@@ -1031,12 +899,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>41600.0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>43340.0</v>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>41600</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>43340</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>27</v>
@@ -1045,12 +913,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>43700.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>44980.0</v>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>43700</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>44980</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
@@ -1059,12 +927,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>45040.0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>45320.0</v>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45320</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>24</v>
@@ -1073,12 +941,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>45560.0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>45840.0</v>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45840</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>29</v>
@@ -1087,12 +955,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>46520.0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>47780.0</v>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>46520</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>47780</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>30</v>
@@ -1101,12 +969,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>47780.0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>48820.0</v>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>47780</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>48820</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>19</v>
@@ -1115,12 +983,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>48820.0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>49820.0</v>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>48820</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>49820</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>21</v>
@@ -1129,12 +997,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>50820.0</v>
-      </c>
-      <c r="B25" s="1">
-        <v>54820.0</v>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>50820</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>54820</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>31</v>
@@ -1143,12 +1011,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>54820.0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>59820.0</v>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>54820</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>59820</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -1157,12 +1025,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>59820.0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>61820.0</v>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>59820</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>61820</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>33</v>
@@ -1171,12 +1039,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>61820.0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>65820.0</v>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>61820</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>65820</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>34</v>
@@ -1185,12 +1053,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>65820.0</v>
-      </c>
-      <c r="B29" s="1">
-        <v>73820.0</v>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>65820</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>73820</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>35</v>
@@ -1199,12 +1067,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>73820.0</v>
-      </c>
-      <c r="B30" s="1">
-        <v>77820.0</v>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>73820</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>77820</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>36</v>
@@ -1213,12 +1081,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>77820.0</v>
-      </c>
-      <c r="B31" s="1">
-        <v>81580.0</v>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>77820</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>81580</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>37</v>
@@ -1227,12 +1095,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>81580.0</v>
-      </c>
-      <c r="B32" s="1">
-        <v>87720.0</v>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>81580</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>87720</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>38</v>
@@ -1241,12 +1109,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <v>87720.0</v>
-      </c>
-      <c r="B33" s="1">
-        <v>92580.0</v>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>87720</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>92580</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>39</v>
@@ -1255,12 +1123,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <v>92580.0</v>
-      </c>
-      <c r="B34" s="1">
-        <v>95460.0</v>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>92580</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>95460</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>40</v>
@@ -1269,12 +1137,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1">
-        <v>95460.0</v>
-      </c>
-      <c r="B35" s="1">
-        <v>100380.0</v>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>95460</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>100380</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>41</v>
@@ -1283,12 +1151,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1">
-        <v>100380.0</v>
-      </c>
-      <c r="B36" s="1">
-        <v>105820.0</v>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>100380</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>105820</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>42</v>
@@ -1297,12 +1165,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>100380.0</v>
-      </c>
-      <c r="B37" s="1">
-        <v>105820.0</v>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>100380</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>105820</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>43</v>
@@ -1311,12 +1179,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1">
-        <v>100380.0</v>
-      </c>
-      <c r="B38" s="1">
-        <v>105820.0</v>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>100380</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>105820</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>44</v>
@@ -1325,12 +1193,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1">
-        <v>100380.0</v>
-      </c>
-      <c r="B39" s="1">
-        <v>105820.0</v>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>100380</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>105820</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>45</v>
@@ -1339,12 +1207,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1">
-        <v>105820.0</v>
-      </c>
-      <c r="B40" s="1">
-        <v>107940.0</v>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>105820</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>107940</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>46</v>
@@ -1353,12 +1221,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1">
-        <v>108280.0</v>
-      </c>
-      <c r="B41" s="1">
-        <v>110540.0</v>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>108280</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>110540</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>47</v>
@@ -1367,12 +1235,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1">
-        <v>111180.0</v>
-      </c>
-      <c r="B42" s="1">
-        <v>115180.0</v>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>111180</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>115180</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>48</v>
@@ -1381,12 +1249,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1">
-        <v>115280.0</v>
-      </c>
-      <c r="B43" s="1">
-        <v>117240.0</v>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>115280</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>117240</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>49</v>
@@ -1395,12 +1263,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1">
-        <v>117300.0</v>
-      </c>
-      <c r="B44" s="1">
-        <v>120820.0</v>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>117300</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>120820</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>50</v>
@@ -1409,12 +1277,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1">
-        <v>121540.0</v>
-      </c>
-      <c r="B45" s="1">
-        <v>122360.0</v>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>121540</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>122360</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>51</v>
@@ -1423,12 +1291,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1">
-        <v>122660.0</v>
-      </c>
-      <c r="B46" s="1">
-        <v>127300.0</v>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>122660</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>127300</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>52</v>
@@ -1437,12 +1305,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1">
-        <v>130460.0</v>
-      </c>
-      <c r="B47" s="1">
-        <v>131980.0</v>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>130460</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>131980</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>53</v>
@@ -1451,12 +1319,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1">
-        <v>132100.0</v>
-      </c>
-      <c r="B48" s="1">
-        <v>133700.0</v>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>132100</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>133700</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>54</v>
@@ -1464,16 +1332,16 @@
       <c r="D48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1">
-        <v>133700.0</v>
-      </c>
-      <c r="B49" s="1">
-        <v>141200.0</v>
+      <c r="E48" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>133700</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>141200</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>55</v>
@@ -1485,12 +1353,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1">
-        <v>133700.0</v>
-      </c>
-      <c r="B50" s="1">
-        <v>141200.0</v>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>133700</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>141200</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>57</v>
@@ -1499,12 +1367,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1">
-        <v>141860.0</v>
-      </c>
-      <c r="B51" s="1">
-        <v>147040.0</v>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>141860</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>147040</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>58</v>
@@ -1519,12 +1387,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1">
-        <v>141860.0</v>
-      </c>
-      <c r="B52" s="1">
-        <v>147040.0</v>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>141860</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>147040</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>60</v>
@@ -1533,12 +1401,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1">
-        <v>152100.0</v>
-      </c>
-      <c r="B53" s="1">
-        <v>163680.0</v>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>152100</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>163680</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>61</v>
@@ -1547,12 +1415,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1">
-        <v>152100.0</v>
-      </c>
-      <c r="B54" s="1">
-        <v>163680.0</v>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>152100</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>163680</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>62</v>
@@ -1560,16 +1428,16 @@
       <c r="D54" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1">
-        <v>163680.0</v>
-      </c>
-      <c r="B55" s="1">
-        <v>170400.0</v>
+      <c r="E54" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>163680</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>170400</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>63</v>
@@ -1578,12 +1446,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1">
-        <v>163680.0</v>
-      </c>
-      <c r="B56" s="1">
-        <v>170400.0</v>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>163680</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>170400</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>64</v>
@@ -1598,12 +1466,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1">
-        <v>163680.0</v>
-      </c>
-      <c r="B57" s="1">
-        <v>170400.0</v>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>163680</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>170400</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>66</v>
@@ -1615,12 +1483,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1">
-        <v>163680.0</v>
-      </c>
-      <c r="B58" s="1">
-        <v>170400.0</v>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>163680</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>170400</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>68</v>
@@ -1629,12 +1497,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1">
-        <v>170400.0</v>
-      </c>
-      <c r="B59" s="1">
-        <v>180480.0</v>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>170400</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>180480</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>69</v>
@@ -1642,16 +1510,16 @@
       <c r="D59" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1">
-        <v>180480.0</v>
-      </c>
-      <c r="B60" s="1">
-        <v>188400.0</v>
+      <c r="E59" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>180480</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>188400</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>70</v>
@@ -1666,12 +1534,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1">
-        <v>180480.0</v>
-      </c>
-      <c r="B61" s="1">
-        <v>188400.0</v>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>180480</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>188400</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>72</v>
@@ -1680,12 +1548,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1">
-        <v>188400.0</v>
-      </c>
-      <c r="B62" s="1">
-        <v>193200.0</v>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>188400</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>193200</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>73</v>
@@ -1694,12 +1562,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1">
-        <v>188400.0</v>
-      </c>
-      <c r="B63" s="1">
-        <v>193200.0</v>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>188400</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>193200</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>74</v>
@@ -1711,12 +1579,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1">
-        <v>188400.0</v>
-      </c>
-      <c r="B64" s="1">
-        <v>193200.0</v>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>188400</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>193200</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>75</v>
@@ -1725,12 +1593,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1">
-        <v>193200.0</v>
-      </c>
-      <c r="B65" s="1">
-        <v>199440.0</v>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>193200</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>199440</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>76</v>
@@ -1738,16 +1606,16 @@
       <c r="D65" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1">
-        <v>193200.0</v>
-      </c>
-      <c r="B66" s="1">
-        <v>199440.0</v>
+      <c r="E65" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>193200</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>199440</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>77</v>
@@ -1762,12 +1630,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1">
-        <v>201440.0</v>
-      </c>
-      <c r="B67" s="1">
-        <v>205600.0</v>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>201440</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>205600</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>79</v>
@@ -1776,12 +1644,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1">
-        <v>205600.0</v>
-      </c>
-      <c r="B68" s="1">
-        <v>206400.0</v>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>205600</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>206400</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>80</v>
@@ -1793,12 +1661,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1">
-        <v>208240.0</v>
-      </c>
-      <c r="B69" s="1">
-        <v>210960.0</v>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>208240</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>210960</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>81</v>
@@ -1806,16 +1674,16 @@
       <c r="D69" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E69" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1">
-        <v>214560.0</v>
-      </c>
-      <c r="B70" s="1">
-        <v>216960.0</v>
+      <c r="E69" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>214560</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>216960</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>82</v>
@@ -1827,12 +1695,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1">
-        <v>221600.0</v>
-      </c>
-      <c r="B71" s="1">
-        <v>223040.0</v>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>221600</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>223040</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>83</v>
@@ -1841,12 +1709,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1">
-        <v>223040.0</v>
-      </c>
-      <c r="B72" s="1">
-        <v>225040.0</v>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>223040</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>225040</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>82</v>
@@ -1859,12 +1727,12 @@
       </c>
       <c r="H72" s="1"/>
     </row>
-    <row r="73">
-      <c r="A73" s="1">
-        <v>228040.0</v>
-      </c>
-      <c r="B73" s="1">
-        <v>232040.0</v>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>228040</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>232040</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>84</v>
@@ -1873,12 +1741,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1">
-        <v>232040.0</v>
-      </c>
-      <c r="B74" s="1">
-        <v>234040.0</v>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>232040</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>234040</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>85</v>
@@ -1890,12 +1758,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1">
-        <v>234040.0</v>
-      </c>
-      <c r="B75" s="1">
-        <v>238040.0</v>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>234040</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>238040</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>86</v>
@@ -1905,12 +1773,12 @@
       </c>
       <c r="G75" s="1"/>
     </row>
-    <row r="76">
-      <c r="A76" s="1">
-        <v>238040.0</v>
-      </c>
-      <c r="B76" s="1">
-        <v>241040.0</v>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>238040</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>241040</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>87</v>
@@ -1918,19 +1786,16 @@
       <c r="D76" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H76" s="1" t="s">
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>241040</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>252040</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1">
-        <v>241040.0</v>
-      </c>
-      <c r="B77" s="1">
-        <v>252040.0</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>23</v>
@@ -1938,13 +1803,16 @@
       <c r="F77" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1">
-        <v>252040.0</v>
-      </c>
-      <c r="B78" s="1">
-        <v>255040.0</v>
+      <c r="H77" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>252040</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>255040</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>90</v>
@@ -1953,12 +1821,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1">
-        <v>255040.0</v>
-      </c>
-      <c r="B79" s="1">
-        <v>257040.0</v>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>255040</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>257040</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>91</v>
@@ -1970,12 +1838,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1">
-        <v>257040.0</v>
-      </c>
-      <c r="B80" s="1">
-        <v>260040.0</v>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>257040</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>260040</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>92</v>
@@ -1987,12 +1855,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1">
-        <v>260040.0</v>
-      </c>
-      <c r="B81" s="1">
-        <v>262040.0</v>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>260040</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>262040</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>93</v>
@@ -2002,12 +1870,12 @@
       </c>
       <c r="E81" s="1"/>
     </row>
-    <row r="82">
-      <c r="A82" s="1">
-        <v>262040.0</v>
-      </c>
-      <c r="B82" s="1">
-        <v>264040.0</v>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>262040</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>264040</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>94</v>
@@ -2015,16 +1883,16 @@
       <c r="D82" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E82" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1">
-        <v>264040.0</v>
-      </c>
-      <c r="B83" s="1">
-        <v>265040.0</v>
+      <c r="E82" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>264040</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>265040</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>29</v>
@@ -2033,12 +1901,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1">
-        <v>267040.0</v>
-      </c>
-      <c r="B84" s="1">
-        <v>269040.0</v>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>267040</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>269040</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>95</v>
@@ -2047,12 +1915,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1">
-        <v>269040.0</v>
-      </c>
-      <c r="B85" s="1">
-        <v>272040.0</v>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>269040</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>272040</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>96</v>
@@ -2061,12 +1929,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1">
-        <v>272040.0</v>
-      </c>
-      <c r="B86" s="1">
-        <v>274040.0</v>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>272040</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>274040</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>97</v>
@@ -2075,12 +1943,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1">
-        <v>272040.0</v>
-      </c>
-      <c r="B87" s="1">
-        <v>274040.0</v>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>272040</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>274040</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>98</v>
@@ -2095,12 +1963,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1">
-        <v>274040.0</v>
-      </c>
-      <c r="B88" s="1">
-        <v>275040.0</v>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>274040</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>275040</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>29</v>
@@ -2112,12 +1980,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1">
-        <v>275040.0</v>
-      </c>
-      <c r="B89" s="1">
-        <v>288040.0</v>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>275040</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>288040</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>100</v>
@@ -2126,12 +1994,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1">
-        <v>288040.0</v>
-      </c>
-      <c r="B90" s="1">
-        <v>289040.0</v>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>288040</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>289040</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>101</v>
@@ -2141,12 +2009,12 @@
       </c>
       <c r="E90" s="1"/>
     </row>
-    <row r="91">
-      <c r="A91" s="1">
-        <v>289040.0</v>
-      </c>
-      <c r="B91" s="1">
-        <v>291040.0</v>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>289040</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>291040</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>94</v>
@@ -2154,16 +2022,16 @@
       <c r="D91" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E91" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1">
-        <v>291040.0</v>
-      </c>
-      <c r="B92" s="1">
-        <v>295040.0</v>
+      <c r="E91" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>291040</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>295040</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>103</v>
@@ -2172,12 +2040,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1">
-        <v>295040.0</v>
-      </c>
-      <c r="B93" s="1">
-        <v>300040.0</v>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>295040</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>300040</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>104</v>
@@ -2192,12 +2060,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1">
-        <v>295040.0</v>
-      </c>
-      <c r="B94" s="1">
-        <v>300040.0</v>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>295040</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>300040</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>106</v>
@@ -2209,12 +2077,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1">
-        <v>300040.0</v>
-      </c>
-      <c r="B95" s="1">
-        <v>302040.0</v>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>300040</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>302040</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>107</v>
@@ -2223,12 +2091,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1">
-        <v>302040.0</v>
-      </c>
-      <c r="B96" s="1">
-        <v>308040.0</v>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>302040</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>308040</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>108</v>
@@ -2236,16 +2104,16 @@
       <c r="D96" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E96" s="1">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1">
-        <v>308040.0</v>
-      </c>
-      <c r="B97" s="1">
-        <v>309040.0</v>
+      <c r="E96" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>308040</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>309040</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>109</v>
@@ -2254,12 +2122,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1">
-        <v>309040.0</v>
-      </c>
-      <c r="B98" s="1">
-        <v>312040.0</v>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>309040</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>312040</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>110</v>
@@ -2268,12 +2136,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1">
-        <v>312040.0</v>
-      </c>
-      <c r="B99" s="1">
-        <v>315040.0</v>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>312040</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>315040</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>111</v>
@@ -2288,12 +2156,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1">
-        <v>315040.0</v>
-      </c>
-      <c r="B100" s="1">
-        <v>316040.0</v>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>315040</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>316040</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>101</v>
@@ -2302,12 +2170,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1">
-        <v>316040.0</v>
-      </c>
-      <c r="B101" s="1">
-        <v>318040.0</v>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>316040</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>318040</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>94</v>
@@ -2315,16 +2183,16 @@
       <c r="D101" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E101" s="1">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1">
-        <v>318040.0</v>
-      </c>
-      <c r="B102" s="1">
-        <v>324040.0</v>
+      <c r="E101" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>318040</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>324040</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>113</v>
@@ -2333,12 +2201,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1">
-        <v>324040.0</v>
-      </c>
-      <c r="B103" s="1">
-        <v>329040.0</v>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>324040</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>329040</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>96</v>
@@ -2347,12 +2215,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1">
-        <v>329040.0</v>
-      </c>
-      <c r="B104" s="1">
-        <v>330040.0</v>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>329040</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>330040</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>114</v>
@@ -2367,12 +2235,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1">
-        <v>330040.0</v>
-      </c>
-      <c r="B105" s="1">
-        <v>332040.0</v>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>330040</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>332040</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>115</v>
@@ -2381,12 +2249,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1">
-        <v>332040.0</v>
-      </c>
-      <c r="B106" s="1">
-        <v>333040.0</v>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>332040</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>333040</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>116</v>
@@ -2394,16 +2262,16 @@
       <c r="D106" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E106" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1">
-        <v>333040.0</v>
-      </c>
-      <c r="B107" s="1">
-        <v>334040.0</v>
+      <c r="E106" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>333040</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>334040</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>117</v>
@@ -2412,12 +2280,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1">
-        <v>334040.0</v>
-      </c>
-      <c r="B108" s="1">
-        <v>336040.0</v>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>334040</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>336040</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>118</v>
@@ -2426,12 +2294,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1">
-        <v>336040.0</v>
-      </c>
-      <c r="B109" s="1">
-        <v>338040.0</v>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>336040</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>338040</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>119</v>
@@ -2446,12 +2314,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1">
-        <v>354040.0</v>
-      </c>
-      <c r="B110" s="1">
-        <v>357040.0</v>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>354040</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>357040</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>104</v>
@@ -2463,12 +2331,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1">
-        <v>357040.0</v>
-      </c>
-      <c r="B111" s="1">
-        <v>359040.0</v>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>357040</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>359040</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>101</v>
@@ -2477,12 +2345,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1">
-        <v>359040.0</v>
-      </c>
-      <c r="B112" s="1">
-        <v>361040.0</v>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>359040</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>361040</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>94</v>
@@ -2490,16 +2358,16 @@
       <c r="D112" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E112" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1">
-        <v>361040.0</v>
-      </c>
-      <c r="B113" s="1">
-        <v>364040.0</v>
+      <c r="E112" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>361040</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>364040</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>120</v>
@@ -2508,12 +2376,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1">
-        <v>364040.0</v>
-      </c>
-      <c r="B114" s="1">
-        <v>369040.0</v>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>364040</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>369040</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>121</v>
@@ -2522,12 +2390,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1">
-        <v>369040.0</v>
-      </c>
-      <c r="B115" s="1">
-        <v>371040.0</v>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>369040</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>371040</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>122</v>
@@ -2542,12 +2410,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1">
-        <v>371040.0</v>
-      </c>
-      <c r="B116" s="1">
-        <v>374040.0</v>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>371040</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>374040</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>123</v>
@@ -2559,12 +2427,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1">
-        <v>374040.0</v>
-      </c>
-      <c r="B117" s="1">
-        <v>378040.0</v>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>374040</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>378040</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>94</v>
@@ -2572,16 +2440,16 @@
       <c r="D117" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E117" s="1">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1">
-        <v>378040.0</v>
-      </c>
-      <c r="B118" s="1">
-        <v>382040.0</v>
+      <c r="E117" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>378040</v>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>382040</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>124</v>
@@ -2590,12 +2458,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1">
-        <v>382040.0</v>
-      </c>
-      <c r="B119" s="1">
-        <v>391040.0</v>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>382040</v>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>391040</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>125</v>
@@ -2604,12 +2472,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1">
-        <v>391040.0</v>
-      </c>
-      <c r="B120" s="1">
-        <v>394040.0</v>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>391040</v>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>394040</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>126</v>
@@ -2621,12 +2489,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1">
-        <v>394040.0</v>
-      </c>
-      <c r="B121" s="1">
-        <v>396040.0</v>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>394040</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>396040</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>127</v>
@@ -2635,12 +2503,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1">
-        <v>396040.0</v>
-      </c>
-      <c r="B122" s="1">
-        <v>398040.0</v>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>396040</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>398040</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>128</v>
@@ -2655,12 +2523,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1">
-        <v>398040.0</v>
-      </c>
-      <c r="B123" s="1">
-        <v>400040.0</v>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>398040</v>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>400040</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>101</v>
@@ -2669,12 +2537,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1">
-        <v>400040.0</v>
-      </c>
-      <c r="B124" s="1">
-        <v>402040.0</v>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>400040</v>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>402040</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>94</v>
@@ -2682,16 +2550,16 @@
       <c r="D124" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E124" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1">
-        <v>402040.0</v>
-      </c>
-      <c r="B125" s="1">
-        <v>404040.0</v>
+      <c r="E124" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>402040</v>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>404040</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>29</v>
@@ -2700,12 +2568,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1">
-        <v>404040.0</v>
-      </c>
-      <c r="B126" s="1">
-        <v>407040.0</v>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>404040</v>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>407040</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>129</v>
@@ -2715,12 +2583,12 @@
       </c>
       <c r="F126" s="1"/>
     </row>
-    <row r="127">
-      <c r="A127" s="1">
-        <v>407040.0</v>
-      </c>
-      <c r="B127" s="1">
-        <v>410040.0</v>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>407040</v>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>410040</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>104</v>
@@ -2735,12 +2603,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1">
-        <v>410040.0</v>
-      </c>
-      <c r="B128" s="1">
-        <v>411040.0</v>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>410040</v>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>411040</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>130</v>
@@ -2752,12 +2620,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1">
-        <v>411040.0</v>
-      </c>
-      <c r="B129" s="1">
-        <v>428000.0</v>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>411040</v>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>428000</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>131</v>
@@ -2766,12 +2634,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1">
-        <v>411040.0</v>
-      </c>
-      <c r="B130" s="1">
-        <v>428000.0</v>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>411040</v>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>428000</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>132</v>
@@ -2779,16 +2647,16 @@
       <c r="D130" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E130" s="1">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1">
-        <v>411040.0</v>
-      </c>
-      <c r="B131" s="1">
-        <v>428000.0</v>
+      <c r="E130" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>411040</v>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>428000</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>133</v>
@@ -2803,12 +2671,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1">
-        <v>428000.0</v>
-      </c>
-      <c r="B132" s="1">
-        <v>430000.0</v>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>428000</v>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>430000</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>134</v>
@@ -2816,16 +2684,16 @@
       <c r="D132" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E132" s="1">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1">
-        <v>430000.0</v>
-      </c>
-      <c r="B133" s="1">
-        <v>436000.0</v>
+      <c r="E132" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>430000</v>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>436000</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>135</v>
@@ -2834,12 +2702,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1">
-        <v>436000.0</v>
-      </c>
-      <c r="B134" s="1">
-        <v>442000.0</v>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>436000</v>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>442000</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>136</v>
@@ -2854,12 +2722,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1">
-        <v>442000.0</v>
-      </c>
-      <c r="B135" s="1">
-        <v>446000.0</v>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>442000</v>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>446000</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>137</v>
@@ -2871,12 +2739,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1">
-        <v>446000.0</v>
-      </c>
-      <c r="B136" s="1">
-        <v>450000.0</v>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>446000</v>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>450000</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>138</v>
@@ -2891,12 +2759,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1">
-        <v>446000.0</v>
-      </c>
-      <c r="B137" s="1">
-        <v>450000.0</v>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>446000</v>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>450000</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>139</v>
@@ -2908,12 +2776,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1">
-        <v>450000.0</v>
-      </c>
-      <c r="B138" s="1">
-        <v>452000.0</v>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>450000</v>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>452000</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>140</v>
@@ -2921,16 +2789,16 @@
       <c r="D138" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E138" s="1">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1">
-        <v>452000.0</v>
-      </c>
-      <c r="B139" s="1">
-        <v>457000.0</v>
+      <c r="E138" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>452000</v>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>457000</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>95</v>
@@ -2939,12 +2807,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1">
-        <v>457000.0</v>
-      </c>
-      <c r="B140" s="1">
-        <v>464000.0</v>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>457000</v>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>464000</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>141</v>
@@ -2959,12 +2827,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1">
-        <v>464000.0</v>
-      </c>
-      <c r="B141" s="1">
-        <v>468000.0</v>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>464000</v>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>468000</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>142</v>
@@ -2972,16 +2840,16 @@
       <c r="D141" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E141" s="1">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1">
-        <v>468000.0</v>
-      </c>
-      <c r="B142" s="1">
-        <v>472000.0</v>
+      <c r="E141" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>468000</v>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>472000</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>143</v>
@@ -2990,12 +2858,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1">
-        <v>472000.0</v>
-      </c>
-      <c r="B143" s="1">
-        <v>475000.0</v>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>472000</v>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>475000</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>144</v>
@@ -3010,12 +2878,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1">
-        <v>472000.0</v>
-      </c>
-      <c r="B144" s="1">
-        <v>475000.0</v>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>472000</v>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>475000</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>145</v>
@@ -3027,12 +2895,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1">
-        <v>475000.0</v>
-      </c>
-      <c r="B145" s="1">
-        <v>478000.0</v>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <v>475000</v>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>478000</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>101</v>
@@ -3040,16 +2908,16 @@
       <c r="D145" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E145" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1">
-        <v>478000.0</v>
-      </c>
-      <c r="B146" s="1">
-        <v>484000.0</v>
+      <c r="E145" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>478000</v>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>484000</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>146</v>
@@ -3058,12 +2926,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1">
-        <v>484000.0</v>
-      </c>
-      <c r="B147" s="1">
-        <v>491000.0</v>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>484000</v>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>491000</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>147</v>
@@ -3078,12 +2946,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1">
-        <v>491000.0</v>
-      </c>
-      <c r="B148" s="1">
-        <v>494000.0</v>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>491000</v>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>494000</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>140</v>
@@ -3091,16 +2959,16 @@
       <c r="D148" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E148" s="1">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1">
-        <v>494000.0</v>
-      </c>
-      <c r="B149" s="1">
-        <v>505000.0</v>
+      <c r="E148" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <v>494000</v>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>505000</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>149</v>
@@ -3109,12 +2977,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1">
-        <v>505000.0</v>
-      </c>
-      <c r="B150" s="1">
-        <v>512000.0</v>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <v>505000</v>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>512000</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>150</v>
@@ -3126,12 +2994,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1">
-        <v>512000.0</v>
-      </c>
-      <c r="B151" s="1">
-        <v>515000.0</v>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>512000</v>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>515000</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>151</v>
@@ -3140,12 +3008,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1">
-        <v>515000.0</v>
-      </c>
-      <c r="B152" s="1">
-        <v>517000.0</v>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>515000</v>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>517000</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>152</v>
@@ -3157,12 +3025,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1">
-        <v>517000.0</v>
-      </c>
-      <c r="B153" s="1">
-        <v>519000.0</v>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <v>517000</v>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>519000</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>153</v>
@@ -3171,12 +3039,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1">
-        <v>519000.0</v>
-      </c>
-      <c r="B154" s="1">
-        <v>521000.0</v>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
+        <v>519000</v>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>521000</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>154</v>
@@ -3191,12 +3059,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1">
-        <v>521000.0</v>
-      </c>
-      <c r="B155" s="1">
-        <v>524000.0</v>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <v>521000</v>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>524000</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>156</v>
@@ -3208,12 +3076,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1">
-        <v>524000.0</v>
-      </c>
-      <c r="B156" s="1">
-        <v>527000.0</v>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <v>524000</v>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>527000</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>100</v>
@@ -3222,12 +3090,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1">
-        <v>527000.0</v>
-      </c>
-      <c r="B157" s="1">
-        <v>529000.0</v>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>527000</v>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>529000</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>157</v>
@@ -3235,16 +3103,16 @@
       <c r="D157" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E157" s="1">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1">
-        <v>529000.0</v>
-      </c>
-      <c r="B158" s="1">
-        <v>530000.0</v>
+      <c r="E157" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>529000</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>530000</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>158</v>
@@ -3256,12 +3124,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1">
-        <v>530000.0</v>
-      </c>
-      <c r="B159" s="1">
-        <v>532000.0</v>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <v>530000</v>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>532000</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>159</v>
@@ -3270,12 +3138,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1">
-        <v>532000.0</v>
-      </c>
-      <c r="B160" s="1">
-        <v>535000.0</v>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <v>532000</v>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>535000</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>160</v>
@@ -3284,12 +3152,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1">
-        <v>532000.0</v>
-      </c>
-      <c r="B161" s="1">
-        <v>535000.0</v>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <v>532000</v>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>535000</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>161</v>
@@ -3301,12 +3169,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1">
-        <v>535000.0</v>
-      </c>
-      <c r="B162" s="1">
-        <v>536000.0</v>
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <v>535000</v>
+      </c>
+      <c r="B162" s="1" t="n">
+        <v>536000</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>162</v>
@@ -3315,12 +3183,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1">
-        <v>536000.0</v>
-      </c>
-      <c r="B163" s="1">
-        <v>539000.0</v>
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="n">
+        <v>536000</v>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>539000</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>163</v>
@@ -3329,12 +3197,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1">
-        <v>539000.0</v>
-      </c>
-      <c r="B164" s="1">
-        <v>540000.0</v>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>539000</v>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>540000</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>128</v>
@@ -3349,12 +3217,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1">
-        <v>540000.0</v>
-      </c>
-      <c r="B165" s="1">
-        <v>542000.0</v>
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <v>540000</v>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>542000</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>101</v>
@@ -3363,12 +3231,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1">
-        <v>542000.0</v>
-      </c>
-      <c r="B166" s="1">
-        <v>543000.0</v>
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <v>542000</v>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>543000</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>101</v>
@@ -3377,12 +3245,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1">
-        <v>543000.0</v>
-      </c>
-      <c r="B167" s="1">
-        <v>549000.0</v>
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <v>543000</v>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>549000</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>164</v>
@@ -3391,12 +3259,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1">
-        <v>549000.0</v>
-      </c>
-      <c r="B168" s="1">
-        <v>552000.0</v>
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="n">
+        <v>549000</v>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>552000</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>165</v>
@@ -3405,12 +3273,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1">
-        <v>552000.0</v>
-      </c>
-      <c r="B169" s="1">
-        <v>554000.0</v>
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <v>552000</v>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>554000</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>166</v>
@@ -3419,12 +3287,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1">
-        <v>554000.0</v>
-      </c>
-      <c r="B170" s="1">
-        <v>556000.0</v>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <v>554000</v>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>556000</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>167</v>
@@ -3434,6 +3302,12 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/data/expt_2/raw_transcripts/game24.xlsx
+++ b/data/expt_2/raw_transcripts/game24.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="171">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">description</t>
   </si>
   <si>
+    <t xml:space="preserve">on_topic</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Okay, now you're on camera.</t>
   </si>
   <si>
@@ -200,6 +203,9 @@
   </si>
   <si>
     <t xml:space="preserve">An apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
   </si>
   <si>
     <t xml:space="preserve">Okay, [id71] and you press what you think is in the black box.</t>
@@ -609,7 +615,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -619,6 +625,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -745,12 +755,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H170"/>
+  <dimension ref="A1:I170"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H166" activeCellId="0" sqref="H166"/>
+      <selection pane="bottomLeft" activeCell="I165" activeCellId="0" sqref="I165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -758,8 +768,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="56.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="3.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="2.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -787,6 +798,9 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -796,10 +810,10 @@
         <v>1600</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,10 +824,10 @@
         <v>4140</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -824,10 +838,10 @@
         <v>8000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -838,10 +852,10 @@
         <v>9760</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -852,10 +866,10 @@
         <v>12260</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,10 +880,10 @@
         <v>14220</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -880,10 +894,10 @@
         <v>20940</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -894,10 +908,10 @@
         <v>24940</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -908,10 +922,10 @@
         <v>29240</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -922,10 +936,10 @@
         <v>30860</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -936,10 +950,10 @@
         <v>32620</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,10 +964,10 @@
         <v>33320</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -964,10 +978,10 @@
         <v>34920</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -978,10 +992,10 @@
         <v>39640</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -992,10 +1006,10 @@
         <v>40160</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1006,10 +1020,10 @@
         <v>41380</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1020,10 +1034,10 @@
         <v>43340</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1034,10 +1048,10 @@
         <v>44980</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1048,10 +1062,10 @@
         <v>45320</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1062,10 +1076,10 @@
         <v>45840</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1076,10 +1090,10 @@
         <v>47780</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1090,10 +1104,10 @@
         <v>48820</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1104,10 +1118,10 @@
         <v>49820</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1118,10 +1132,10 @@
         <v>54820</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1132,10 +1146,10 @@
         <v>59820</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1146,10 +1160,10 @@
         <v>61820</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1160,10 +1174,10 @@
         <v>65820</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1174,10 +1188,10 @@
         <v>73820</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1188,10 +1202,10 @@
         <v>77820</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1202,10 +1216,10 @@
         <v>81580</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1216,10 +1230,10 @@
         <v>87720</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1230,10 +1244,10 @@
         <v>92580</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1244,10 +1258,10 @@
         <v>95460</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1258,10 +1272,10 @@
         <v>100380</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1272,10 +1286,10 @@
         <v>105820</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1286,10 +1300,10 @@
         <v>105820</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1300,10 +1314,10 @@
         <v>105820</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1314,10 +1328,10 @@
         <v>105820</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1328,10 +1342,10 @@
         <v>107940</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1342,10 +1356,10 @@
         <v>110540</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1356,10 +1370,10 @@
         <v>115180</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1370,10 +1384,10 @@
         <v>117240</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1384,10 +1398,10 @@
         <v>120820</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1398,10 +1412,10 @@
         <v>122360</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1412,10 +1426,10 @@
         <v>127300</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1426,10 +1440,10 @@
         <v>131980</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1440,10 +1454,10 @@
         <v>133700</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" s="2" t="n">
         <v>0</v>
@@ -1457,13 +1471,13 @@
         <v>141200</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1474,10 +1488,10 @@
         <v>141200</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1488,16 +1502,19 @@
         <v>147040</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1508,10 +1525,10 @@
         <v>147040</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1522,10 +1539,10 @@
         <v>163680</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1536,10 +1553,10 @@
         <v>163680</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>1</v>
@@ -1553,10 +1570,10 @@
         <v>170400</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1567,16 +1584,19 @@
         <v>170400</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1587,13 +1607,16 @@
         <v>170400</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,10 +1627,10 @@
         <v>170400</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1618,10 +1641,10 @@
         <v>180480</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" s="2" t="n">
         <v>2</v>
@@ -1635,16 +1658,19 @@
         <v>188400</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1655,10 +1681,10 @@
         <v>188400</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1669,10 +1695,10 @@
         <v>193200</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1683,13 +1709,16 @@
         <v>193200</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1700,10 +1729,10 @@
         <v>193200</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1714,10 +1743,10 @@
         <v>199440</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" s="2" t="n">
         <v>3</v>
@@ -1731,16 +1760,19 @@
         <v>199440</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1751,10 +1783,10 @@
         <v>205600</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1765,13 +1797,16 @@
         <v>206400</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1782,10 +1817,10 @@
         <v>210960</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>4</v>
@@ -1799,16 +1834,19 @@
         <v>216960</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1819,10 +1857,10 @@
         <v>223040</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1833,15 +1871,18 @@
         <v>225040</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H72" s="2"/>
+      <c r="I72" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
@@ -1851,10 +1892,10 @@
         <v>232040</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1865,13 +1906,16 @@
         <v>234040</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1882,10 +1926,10 @@
         <v>238040</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2"/>
     </row>
@@ -1897,10 +1941,10 @@
         <v>241040</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1911,16 +1955,19 @@
         <v>252040</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1931,10 +1978,10 @@
         <v>255040</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1945,16 +1992,19 @@
         <v>257040</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1965,13 +2015,16 @@
         <v>260040</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1982,10 +2035,10 @@
         <v>262040</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" s="2"/>
     </row>
@@ -1997,10 +2050,10 @@
         <v>264040</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" s="2" t="n">
         <v>5</v>
@@ -2014,10 +2067,10 @@
         <v>265040</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2028,10 +2081,10 @@
         <v>269040</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2042,10 +2095,10 @@
         <v>272040</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2056,10 +2109,10 @@
         <v>274040</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2070,16 +2123,19 @@
         <v>274040</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2090,13 +2146,13 @@
         <v>275040</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2107,10 +2163,10 @@
         <v>288040</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2121,10 +2177,10 @@
         <v>289040</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E90" s="2"/>
     </row>
@@ -2136,10 +2192,10 @@
         <v>291040</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" s="2" t="n">
         <v>6</v>
@@ -2153,10 +2209,10 @@
         <v>295040</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2167,16 +2223,19 @@
         <v>300040</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2187,13 +2246,16 @@
         <v>300040</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2204,10 +2266,10 @@
         <v>302040</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2218,10 +2280,10 @@
         <v>308040</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" s="2" t="n">
         <v>7</v>
@@ -2235,10 +2297,10 @@
         <v>309040</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2249,10 +2311,10 @@
         <v>312040</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2263,16 +2325,19 @@
         <v>315040</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2283,10 +2348,10 @@
         <v>316040</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2297,10 +2362,10 @@
         <v>318040</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" s="2" t="n">
         <v>8</v>
@@ -2314,10 +2379,10 @@
         <v>324040</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2328,10 +2393,10 @@
         <v>329040</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2342,16 +2407,19 @@
         <v>330040</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2362,10 +2430,10 @@
         <v>332040</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2376,10 +2444,10 @@
         <v>333040</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" s="2" t="n">
         <v>9</v>
@@ -2393,10 +2461,10 @@
         <v>334040</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2407,10 +2475,10 @@
         <v>336040</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,16 +2489,19 @@
         <v>338040</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2441,13 +2512,16 @@
         <v>357040</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2458,10 +2532,10 @@
         <v>359040</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2472,10 +2546,10 @@
         <v>361040</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" s="2" t="n">
         <v>10</v>
@@ -2489,10 +2563,10 @@
         <v>364040</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2503,10 +2577,10 @@
         <v>369040</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2517,16 +2591,19 @@
         <v>371040</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2537,13 +2614,13 @@
         <v>374040</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2554,10 +2631,10 @@
         <v>378040</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" s="2" t="n">
         <v>11</v>
@@ -2571,10 +2648,10 @@
         <v>382040</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2585,10 +2662,10 @@
         <v>391040</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2599,13 +2676,16 @@
         <v>394040</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2616,10 +2696,10 @@
         <v>396040</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2630,16 +2710,19 @@
         <v>398040</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2650,10 +2733,10 @@
         <v>400040</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2664,10 +2747,10 @@
         <v>402040</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" s="2" t="n">
         <v>12</v>
@@ -2681,10 +2764,10 @@
         <v>404040</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2695,10 +2778,10 @@
         <v>407040</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F126" s="2"/>
     </row>
@@ -2710,16 +2793,19 @@
         <v>410040</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2730,13 +2816,13 @@
         <v>411040</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2747,10 +2833,10 @@
         <v>428000</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2761,10 +2847,10 @@
         <v>428000</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" s="2" t="n">
         <v>13</v>
@@ -2778,16 +2864,19 @@
         <v>428000</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2798,10 +2887,10 @@
         <v>430000</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" s="2" t="n">
         <v>14</v>
@@ -2815,10 +2904,10 @@
         <v>436000</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2829,16 +2918,19 @@
         <v>442000</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2849,13 +2941,16 @@
         <v>446000</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2866,16 +2961,19 @@
         <v>450000</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2886,13 +2984,16 @@
         <v>450000</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2903,10 +3004,10 @@
         <v>452000</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" s="2" t="n">
         <v>15</v>
@@ -2920,10 +3021,10 @@
         <v>457000</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2934,16 +3035,19 @@
         <v>464000</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2954,10 +3058,10 @@
         <v>468000</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" s="2" t="n">
         <v>16</v>
@@ -2971,10 +3075,10 @@
         <v>472000</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2985,16 +3089,19 @@
         <v>475000</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3005,13 +3112,16 @@
         <v>475000</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3022,10 +3132,10 @@
         <v>478000</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" s="2" t="n">
         <v>17</v>
@@ -3039,10 +3149,10 @@
         <v>484000</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3053,16 +3163,19 @@
         <v>491000</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3073,10 +3186,10 @@
         <v>494000</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" s="2" t="n">
         <v>18</v>
@@ -3090,10 +3203,10 @@
         <v>505000</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3104,13 +3217,16 @@
         <v>512000</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3121,10 +3237,10 @@
         <v>515000</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3135,13 +3251,16 @@
         <v>517000</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3152,10 +3271,10 @@
         <v>519000</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3166,16 +3285,19 @@
         <v>521000</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3186,13 +3308,16 @@
         <v>524000</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3203,10 +3328,10 @@
         <v>527000</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3217,10 +3342,10 @@
         <v>529000</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" s="2" t="n">
         <v>19</v>
@@ -3234,13 +3359,13 @@
         <v>530000</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3251,10 +3376,10 @@
         <v>532000</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3265,10 +3390,10 @@
         <v>535000</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3279,13 +3404,13 @@
         <v>535000</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3296,10 +3421,10 @@
         <v>536000</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3310,10 +3435,10 @@
         <v>539000</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3324,16 +3449,19 @@
         <v>540000</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3344,10 +3472,10 @@
         <v>542000</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3358,10 +3486,10 @@
         <v>543000</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3372,10 +3500,10 @@
         <v>549000</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3386,10 +3514,10 @@
         <v>552000</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3400,10 +3528,10 @@
         <v>554000</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3414,10 +3542,10 @@
         <v>556000</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/expt_2/raw_transcripts/game24.xlsx
+++ b/data/expt_2/raw_transcripts/game24.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="171">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -628,7 +628,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -760,7 +760,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I165" activeCellId="0" sqref="I165"/>
+      <selection pane="bottomLeft" activeCell="F171" activeCellId="0" sqref="F171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -769,7 +769,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="6.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="3.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="2.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="2.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.05"/>
   </cols>
   <sheetData>
@@ -3546,6 +3546,9 @@
       </c>
       <c r="D170" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
